--- a/regions/7/samartlebrivi statistika/samartlebrivi statistika.xlsx
+++ b/regions/7/samartlebrivi statistika/samartlebrivi statistika.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919745A-A73D-4A32-B337-9F18A34CDE7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="10500"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2008-2020" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="24">
   <si>
     <t>სამართლებრივი სტატისტიკა</t>
   </si>
@@ -89,9 +88,6 @@
     <t xml:space="preserve">44 წელზე უფროსი ასაკის </t>
   </si>
   <si>
-    <t>18 წელზე უმცროსი ასაკის</t>
-  </si>
-  <si>
     <t>18-24</t>
   </si>
   <si>
@@ -102,14 +98,21 @@
   </si>
   <si>
     <t>მონაცემები ოჯახში ძალადობის მსხვერპლთა და მოძალადეთა რაოდენობის შესახებ ასაკობრივ ჭრილში რაჭა-ლეჩხუმისა და ქვემო სვანეთის რეგიონში</t>
+  </si>
+  <si>
+    <t>13 წელზე უმცროსი ასაკის</t>
+  </si>
+  <si>
+    <t>14-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="#\ ###"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -200,7 +203,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +214,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -314,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -409,17 +418,43 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,23 +555,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,23 +590,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -764,49 +765,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE845B96-358D-4163-8D31-42547EDFCFF3}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
+    <col min="2" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="39">
+      <c r="B5" s="47">
         <v>2021</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="48"/>
+      <c r="D5" s="50">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -814,9 +826,20 @@
       <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -826,28 +849,68 @@
       <c r="C7" s="27">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="41">
+        <v>17</v>
+      </c>
+      <c r="E7" s="42">
+        <v>20</v>
+      </c>
+      <c r="F7" s="42">
+        <v>26</v>
+      </c>
+      <c r="G7" s="41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="43">
+        <v>2</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>19</v>
       </c>
       <c r="B10" s="33">
         <v>3</v>
@@ -855,8 +918,20 @@
       <c r="C10" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="43">
+        <v>2</v>
+      </c>
+      <c r="E10" s="43">
+        <v>2</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1</v>
+      </c>
+      <c r="G10" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>8</v>
       </c>
@@ -866,10 +941,22 @@
       <c r="C11" s="33">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="44">
+        <v>7</v>
+      </c>
+      <c r="E11" s="43">
+        <v>9</v>
+      </c>
+      <c r="F11" s="43">
+        <v>8</v>
+      </c>
+      <c r="G11" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="33">
         <v>8</v>
@@ -877,10 +964,22 @@
       <c r="C12" s="33">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="44">
+        <v>5</v>
+      </c>
+      <c r="E12" s="43">
+        <v>4</v>
+      </c>
+      <c r="F12" s="43">
+        <v>11</v>
+      </c>
+      <c r="G12" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="33">
         <v>3</v>
@@ -888,8 +987,20 @@
       <c r="C13" s="33">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="44">
+        <v>3</v>
+      </c>
+      <c r="E13" s="43">
+        <v>3</v>
+      </c>
+      <c r="F13" s="43">
+        <v>6</v>
+      </c>
+      <c r="G13" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
@@ -899,22 +1010,36 @@
       <c r="C14" s="37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="D14" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -922,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -930,11 +1055,11 @@
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" style="3" customWidth="1"/>
-    <col min="2" max="27" width="12.6640625" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="40.5703125" style="3" customWidth="1"/>
+    <col min="2" max="27" width="12.7109375" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -962,7 +1087,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1037,61 +1162,61 @@
     </row>
     <row r="5" spans="1:28" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="39">
+      <c r="B5" s="47">
         <v>2008</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47">
         <v>2009</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47">
         <v>2010</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="43">
+      <c r="I5" s="54"/>
+      <c r="J5" s="53">
         <v>2012</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="43">
+      <c r="K5" s="54"/>
+      <c r="L5" s="53">
         <v>2013</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="43">
+      <c r="M5" s="54"/>
+      <c r="N5" s="53">
         <v>2014</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43">
+      <c r="O5" s="54"/>
+      <c r="P5" s="53">
         <v>2015</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="43">
+      <c r="Q5" s="54"/>
+      <c r="R5" s="53">
         <v>2016</v>
       </c>
-      <c r="S5" s="44"/>
-      <c r="T5" s="39">
+      <c r="S5" s="54"/>
+      <c r="T5" s="47">
         <v>2017</v>
       </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="39">
+      <c r="U5" s="48"/>
+      <c r="V5" s="47">
         <v>2018</v>
       </c>
-      <c r="W5" s="40"/>
-      <c r="X5" s="39">
+      <c r="W5" s="48"/>
+      <c r="X5" s="47">
         <v>2019</v>
       </c>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="39">
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="47">
         <v>2020</v>
       </c>
-      <c r="AA5" s="40"/>
+      <c r="AA5" s="48"/>
       <c r="AB5" s="23"/>
     </row>
-    <row r="6" spans="1:28" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -1173,7 +1298,7 @@
       </c>
       <c r="AB6" s="24"/>
     </row>
-    <row r="7" spans="1:28" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1412,7 @@
       <c r="Z8" s="30"/>
       <c r="AA8" s="30"/>
     </row>
-    <row r="9" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
